--- a/InputData/trans/SYNoEVC/Start Year Number of EV Chargers.xlsx
+++ b/InputData/trans/SYNoEVC/Start Year Number of EV Chargers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\SYNoEVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B839DB7-AAF7-4B2E-8DFA-3713F0BD894F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5F35E5-AF60-4B29-981C-E9F5AEE30CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="975" windowWidth="14520" windowHeight="17025" firstSheet="4" activeTab="7" xr2:uid="{53BC2858-0C9C-40F6-9AF5-90A6B4092AC8}"/>
+    <workbookView xWindow="3900" yWindow="1110" windowWidth="13035" windowHeight="16890" firstSheet="5" activeTab="7" xr2:uid="{53BC2858-0C9C-40F6-9AF5-90A6B4092AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -657,6 +657,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1292,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="C1" s="52">
-        <v>45194</v>
+        <v>45258</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>49</v>

--- a/InputData/trans/SYNoEVC/Start Year Number of EV Chargers.xlsx
+++ b/InputData/trans/SYNoEVC/Start Year Number of EV Chargers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\SYNoEVC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/trans/SYNoEVC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5F35E5-AF60-4B29-981C-E9F5AEE30CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0783E1B9-554A-524C-8ED0-A5F67BB57CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1110" windowWidth="13035" windowHeight="16890" firstSheet="5" activeTab="7" xr2:uid="{53BC2858-0C9C-40F6-9AF5-90A6B4092AC8}"/>
+    <workbookView xWindow="3120" yWindow="960" windowWidth="13040" windowHeight="16900" firstSheet="5" activeTab="7" xr2:uid="{53BC2858-0C9C-40F6-9AF5-90A6B4092AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1279,10 +1279,10 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1293,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="C1" s="52">
-        <v>45258</v>
+        <v>45295</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>49</v>
@@ -1778,7 +1778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1793,9 +1793,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1817,7 +1817,7 @@
         <v>7500000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>9375000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>7943476215.0791588</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
+    <row r="8" spans="1:2" ht="32">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>24443</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
+    <row r="10" spans="1:2" ht="32">
       <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
@@ -1866,16 +1866,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="16.140625" style="10" customWidth="1"/>
-    <col min="7" max="11" width="12.5703125" style="10"/>
-    <col min="12" max="12" width="16.42578125" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="12.5703125" style="10"/>
+    <col min="1" max="1" width="60.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="10" customWidth="1"/>
+    <col min="5" max="6" width="16.1640625" style="10" customWidth="1"/>
+    <col min="7" max="11" width="12.5" style="10"/>
+    <col min="12" max="12" width="16.5" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="12.5" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="14.25" customHeight="1">
@@ -1920,7 +1920,7 @@
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
     </row>
-    <row r="2" spans="1:38" ht="180">
+    <row r="2" spans="1:38" ht="160">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:38" ht="15">
+    <row r="10" spans="1:38" ht="16">
       <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="AK11" s="16"/>
       <c r="AL11" s="16"/>
     </row>
-    <row r="12" spans="1:38" ht="30">
+    <row r="12" spans="1:38" ht="16">
       <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
@@ -2852,10 +2852,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3459,14 +3459,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="19.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" thickBot="1">
+    <row r="1" spans="1:4" ht="14" thickBot="1">
       <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
@@ -3486,13 +3486,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" thickBot="1">
+    <row r="4" spans="1:4" ht="14" thickBot="1">
       <c r="A4" s="40"/>
       <c r="B4" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="26" t="s">
         <v>49</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" thickBot="1">
+    <row r="6" spans="1:4" ht="14" thickBot="1">
       <c r="A6" s="27"/>
       <c r="B6" s="33">
         <v>35</v>
@@ -3515,7 +3515,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="30" t="s">
         <v>50</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.5" thickBot="1">
+    <row r="8" spans="1:4" ht="14" thickBot="1">
       <c r="A8" s="31"/>
       <c r="B8" s="35">
         <v>3</v>
@@ -3538,7 +3538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14">
       <c r="A9" s="26" t="s">
         <v>51</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" thickBot="1">
+    <row r="10" spans="1:4" ht="14" thickBot="1">
       <c r="A10" s="27"/>
       <c r="B10" s="33">
         <v>9</v>
@@ -3561,7 +3561,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="14">
       <c r="A11" s="30" t="s">
         <v>52</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" thickBot="1">
+    <row r="12" spans="1:4" ht="14" thickBot="1">
       <c r="A12" s="31"/>
       <c r="B12" s="35">
         <v>3</v>
@@ -3584,7 +3584,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="14">
       <c r="A13" s="26" t="s">
         <v>53</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>43400</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.5" thickBot="1">
+    <row r="14" spans="1:4" ht="14" thickBot="1">
       <c r="A14" s="27"/>
       <c r="B14" s="33">
         <v>546</v>
@@ -3607,7 +3607,7 @@
         <v>8465</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="14">
       <c r="A15" s="30" t="s">
         <v>54</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.5" thickBot="1">
+    <row r="16" spans="1:4" ht="14" thickBot="1">
       <c r="A16" s="31"/>
       <c r="B16" s="35">
         <v>90</v>
@@ -3630,7 +3630,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="14">
       <c r="A17" s="26" t="s">
         <v>55</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.5" thickBot="1">
+    <row r="18" spans="1:4" ht="14" thickBot="1">
       <c r="A18" s="27"/>
       <c r="B18" s="33">
         <v>67</v>
@@ -3653,7 +3653,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="14">
       <c r="A19" s="30" t="s">
         <v>56</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.5" thickBot="1">
+    <row r="20" spans="1:4" ht="14" thickBot="1">
       <c r="A20" s="31"/>
       <c r="B20" s="35">
         <v>5</v>
@@ -3676,7 +3676,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="14">
       <c r="A21" s="26" t="s">
         <v>57</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.5" thickBot="1">
+    <row r="22" spans="1:4" ht="14" thickBot="1">
       <c r="A22" s="27"/>
       <c r="B22" s="33">
         <v>43</v>
@@ -3699,7 +3699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="14">
       <c r="A23" s="30" t="s">
         <v>58</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>7802</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.5" thickBot="1">
+    <row r="24" spans="1:4" ht="14" thickBot="1">
       <c r="A24" s="31"/>
       <c r="B24" s="35">
         <v>364</v>
@@ -3722,7 +3722,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="14">
       <c r="A25" s="26" t="s">
         <v>59</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>4121</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.5" thickBot="1">
+    <row r="26" spans="1:4" ht="14" thickBot="1">
       <c r="A26" s="27"/>
       <c r="B26" s="33">
         <v>230</v>
@@ -3745,7 +3745,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="14">
       <c r="A27" s="30" t="s">
         <v>60</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.5" thickBot="1">
+    <row r="28" spans="1:4" ht="14" thickBot="1">
       <c r="A28" s="31"/>
       <c r="B28" s="35">
         <v>30</v>
@@ -3768,7 +3768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="14">
       <c r="A29" s="26" t="s">
         <v>61</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.5" thickBot="1">
+    <row r="30" spans="1:4" ht="14" thickBot="1">
       <c r="A30" s="27"/>
       <c r="B30" s="33">
         <v>10</v>
@@ -3791,7 +3791,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="14">
       <c r="A31" s="30" t="s">
         <v>62</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.5" thickBot="1">
+    <row r="32" spans="1:4" ht="14" thickBot="1">
       <c r="A32" s="31"/>
       <c r="B32" s="35">
         <v>50</v>
@@ -3814,7 +3814,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="14">
       <c r="A33" s="26" t="s">
         <v>63</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.5" thickBot="1">
+    <row r="34" spans="1:4" ht="14" thickBot="1">
       <c r="A34" s="27"/>
       <c r="B34" s="33">
         <v>8</v>
@@ -3837,7 +3837,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="14">
       <c r="A35" s="30" t="s">
         <v>64</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.5" thickBot="1">
+    <row r="36" spans="1:4" ht="14" thickBot="1">
       <c r="A36" s="31"/>
       <c r="B36" s="35">
         <v>4</v>
@@ -3860,7 +3860,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="14">
       <c r="A37" s="26" t="s">
         <v>65</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.5" thickBot="1">
+    <row r="38" spans="1:4" ht="14" thickBot="1">
       <c r="A38" s="27"/>
       <c r="B38" s="33">
         <v>14</v>
@@ -3883,7 +3883,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="14">
       <c r="A39" s="30" t="s">
         <v>66</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.5" thickBot="1">
+    <row r="40" spans="1:4" ht="14" thickBot="1">
       <c r="A40" s="31"/>
       <c r="B40" s="35">
         <v>24</v>
@@ -3906,7 +3906,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="14">
       <c r="A41" s="26" t="s">
         <v>67</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.5" thickBot="1">
+    <row r="42" spans="1:4" ht="14" thickBot="1">
       <c r="A42" s="27"/>
       <c r="B42" s="33">
         <v>21</v>
@@ -3929,7 +3929,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="14">
       <c r="A43" s="30" t="s">
         <v>68</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.5" thickBot="1">
+    <row r="44" spans="1:4" ht="14" thickBot="1">
       <c r="A44" s="31"/>
       <c r="B44" s="35">
         <v>25</v>
@@ -3952,7 +3952,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="14">
       <c r="A45" s="26" t="s">
         <v>69</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13.5" thickBot="1">
+    <row r="46" spans="1:4" ht="14" thickBot="1">
       <c r="A46" s="27"/>
       <c r="B46" s="33">
         <v>45</v>
@@ -3975,7 +3975,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="14">
       <c r="A47" s="30" t="s">
         <v>70</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>5765</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13.5" thickBot="1">
+    <row r="48" spans="1:4" ht="14" thickBot="1">
       <c r="A48" s="31"/>
       <c r="B48" s="35">
         <v>64</v>
@@ -3998,7 +3998,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="14">
       <c r="A49" s="26" t="s">
         <v>71</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.5" thickBot="1">
+    <row r="50" spans="1:4" ht="14" thickBot="1">
       <c r="A50" s="27"/>
       <c r="B50" s="33">
         <v>14</v>
@@ -4021,7 +4021,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="14">
       <c r="A51" s="30" t="s">
         <v>72</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13.5" thickBot="1">
+    <row r="52" spans="1:4" ht="14" thickBot="1">
       <c r="A52" s="31"/>
       <c r="B52" s="35">
         <v>75</v>
@@ -4044,7 +4044,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" ht="14">
       <c r="A53" s="26" t="s">
         <v>73</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="13.5" thickBot="1">
+    <row r="54" spans="1:4" ht="14" thickBot="1">
       <c r="A54" s="27"/>
       <c r="B54" s="33">
         <v>139</v>
@@ -4067,7 +4067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="14">
       <c r="A55" s="30" t="s">
         <v>74</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13.5" thickBot="1">
+    <row r="56" spans="1:4" ht="14" thickBot="1">
       <c r="A56" s="31"/>
       <c r="B56" s="35">
         <v>14</v>
@@ -4090,7 +4090,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="14">
       <c r="A57" s="26" t="s">
         <v>75</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.5" thickBot="1">
+    <row r="58" spans="1:4" ht="14" thickBot="1">
       <c r="A58" s="27"/>
       <c r="B58" s="33">
         <v>3</v>
@@ -4113,7 +4113,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="14">
       <c r="A59" s="30" t="s">
         <v>76</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.5" thickBot="1">
+    <row r="60" spans="1:4" ht="14" thickBot="1">
       <c r="A60" s="31"/>
       <c r="B60" s="35">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" ht="14">
       <c r="A61" s="26" t="s">
         <v>77</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.5" thickBot="1">
+    <row r="62" spans="1:4" ht="14" thickBot="1">
       <c r="A62" s="27"/>
       <c r="B62" s="33">
         <v>15</v>
@@ -4159,7 +4159,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="14">
       <c r="A63" s="30" t="s">
         <v>78</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.5" thickBot="1">
+    <row r="64" spans="1:4" ht="14" thickBot="1">
       <c r="A64" s="31"/>
       <c r="B64" s="35">
         <v>6</v>
@@ -4182,7 +4182,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="14">
       <c r="A65" s="26" t="s">
         <v>79</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.5" thickBot="1">
+    <row r="66" spans="1:4" ht="14" thickBot="1">
       <c r="A66" s="27"/>
       <c r="B66" s="33">
         <v>16</v>
@@ -4205,7 +4205,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="14">
       <c r="A67" s="30" t="s">
         <v>80</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.5" thickBot="1">
+    <row r="68" spans="1:4" ht="14" thickBot="1">
       <c r="A68" s="31"/>
       <c r="B68" s="35">
         <v>10</v>
@@ -4228,7 +4228,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" ht="14">
       <c r="A69" s="26" t="s">
         <v>81</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>9539</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="13.5" thickBot="1">
+    <row r="70" spans="1:4" ht="14" thickBot="1">
       <c r="A70" s="27"/>
       <c r="B70" s="33">
         <v>41</v>
@@ -4251,7 +4251,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" ht="14">
       <c r="A71" s="30" t="s">
         <v>82</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="13.5" thickBot="1">
+    <row r="72" spans="1:4" ht="14" thickBot="1">
       <c r="A72" s="31"/>
       <c r="B72" s="35">
         <v>37</v>
@@ -4274,7 +4274,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="14">
       <c r="A73" s="26" t="s">
         <v>83</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="13.5" thickBot="1">
+    <row r="74" spans="1:4" ht="14" thickBot="1">
       <c r="A74" s="27"/>
       <c r="B74" s="33">
         <v>0</v>
@@ -4297,7 +4297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" ht="14">
       <c r="A75" s="30" t="s">
         <v>84</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="13.5" thickBot="1">
+    <row r="76" spans="1:4" ht="14" thickBot="1">
       <c r="A76" s="31"/>
       <c r="B76" s="35">
         <v>40</v>
@@ -4320,7 +4320,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" ht="14">
       <c r="A77" s="26" t="s">
         <v>85</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="13.5" thickBot="1">
+    <row r="78" spans="1:4" ht="14" thickBot="1">
       <c r="A78" s="27"/>
       <c r="B78" s="33">
         <v>8</v>
@@ -4343,7 +4343,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" ht="14">
       <c r="A79" s="30" t="s">
         <v>86</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="13.5" thickBot="1">
+    <row r="80" spans="1:4" ht="14" thickBot="1">
       <c r="A80" s="31"/>
       <c r="B80" s="35">
         <v>75</v>
@@ -4366,7 +4366,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="14">
       <c r="A81" s="26" t="s">
         <v>87</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="13.5" thickBot="1">
+    <row r="82" spans="1:4" ht="14" thickBot="1">
       <c r="A82" s="27"/>
       <c r="B82" s="33">
         <v>51</v>
@@ -4389,7 +4389,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="14">
       <c r="A83" s="30" t="s">
         <v>88</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="13.5" thickBot="1">
+    <row r="84" spans="1:4" ht="14" thickBot="1">
       <c r="A84" s="31"/>
       <c r="B84" s="35">
         <v>82</v>
@@ -4412,7 +4412,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="14">
       <c r="A85" s="26" t="s">
         <v>89</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="13.5" thickBot="1">
+    <row r="86" spans="1:4" ht="14" thickBot="1">
       <c r="A86" s="27"/>
       <c r="B86" s="33">
         <v>18</v>
@@ -4435,7 +4435,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" ht="14">
       <c r="A87" s="30" t="s">
         <v>90</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="13.5" thickBot="1">
+    <row r="88" spans="1:4" ht="14" thickBot="1">
       <c r="A88" s="31"/>
       <c r="B88" s="35">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="14">
       <c r="A89" s="26" t="s">
         <v>91</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="13.5" thickBot="1">
+    <row r="90" spans="1:4" ht="14" thickBot="1">
       <c r="A90" s="27"/>
       <c r="B90" s="33">
         <v>33</v>
@@ -4481,7 +4481,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="14">
       <c r="A91" s="30" t="s">
         <v>92</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>6313</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13.5" thickBot="1">
+    <row r="92" spans="1:4" ht="14" thickBot="1">
       <c r="A92" s="31"/>
       <c r="B92" s="35">
         <v>96</v>
@@ -4504,7 +4504,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="14">
       <c r="A93" s="26" t="s">
         <v>93</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13.5" thickBot="1">
+    <row r="94" spans="1:4" ht="14" thickBot="1">
       <c r="A94" s="27"/>
       <c r="B94" s="33">
         <v>17</v>
@@ -4527,7 +4527,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" ht="14">
       <c r="A95" s="30" t="s">
         <v>94</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13.5" thickBot="1">
+    <row r="96" spans="1:4" ht="14" thickBot="1">
       <c r="A96" s="31"/>
       <c r="B96" s="35">
         <v>35</v>
@@ -4550,7 +4550,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="14">
       <c r="A97" s="26" t="s">
         <v>95</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13.5" thickBot="1">
+    <row r="98" spans="1:4" ht="14" thickBot="1">
       <c r="A98" s="27"/>
       <c r="B98" s="33">
         <v>237</v>
@@ -4573,7 +4573,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="14">
       <c r="A99" s="30" t="s">
         <v>96</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="13.5" thickBot="1">
+    <row r="100" spans="1:4" ht="14" thickBot="1">
       <c r="A100" s="31"/>
       <c r="B100" s="35">
         <v>209</v>
@@ -4596,7 +4596,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" ht="14">
       <c r="A101" s="26" t="s">
         <v>97</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="13.5" thickBot="1">
+    <row r="102" spans="1:4" ht="14" thickBot="1">
       <c r="A102" s="27"/>
       <c r="B102" s="33">
         <v>19</v>
@@ -4619,7 +4619,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" ht="14">
       <c r="A103" s="30" t="s">
         <v>98</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="13.5" thickBot="1">
+    <row r="104" spans="1:4" ht="14" thickBot="1">
       <c r="A104" s="31"/>
       <c r="B104" s="35">
         <v>6</v>
@@ -4642,7 +4642,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" ht="14">
       <c r="A105" s="30" t="s">
         <v>99</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13.5" thickBot="1">
+    <row r="106" spans="1:4" ht="14" thickBot="1">
       <c r="A106" s="31"/>
       <c r="B106" s="33">
         <v>6</v>
@@ -4665,7 +4665,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" ht="14">
       <c r="A107" s="28" t="s">
         <v>100</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>143771</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="13.5" thickBot="1">
+    <row r="108" spans="1:4" ht="14" thickBot="1">
       <c r="A108" s="29"/>
       <c r="B108" s="46">
         <v>2994</v>
@@ -4700,13 +4700,13 @@
       </c>
       <c r="B112" s="24"/>
     </row>
-    <row r="113" spans="1:2" ht="26.1" customHeight="1">
+    <row r="113" spans="1:2" ht="26" customHeight="1">
       <c r="A113" s="24" t="s">
         <v>103</v>
       </c>
       <c r="B113" s="24"/>
     </row>
-    <row r="114" spans="1:2" ht="38.1" customHeight="1">
+    <row r="114" spans="1:2" ht="38" customHeight="1">
       <c r="A114" s="25" t="s">
         <v>104</v>
       </c>
@@ -4725,10 +4725,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -5076,7 +5076,7 @@
     <row r="4" spans="1:32">
       <c r="AE4" s="47"/>
     </row>
-    <row r="5" spans="1:32" ht="15.75" thickBot="1">
+    <row r="5" spans="1:32" ht="16" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>157</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15.75" thickBot="1">
+    <row r="6" spans="1:32" ht="16" thickBot="1">
       <c r="A6" s="53" t="str">
         <f>About!B1</f>
         <v>California</v>
@@ -5328,10 +5328,10 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
